--- a/Grid_5x5/Solution_NDP_S034/Spreadsheet/Output_VIS17_PuTAss_CapaRestNo_InterlYes_v01.xlsx
+++ b/Grid_5x5/Solution_NDP_S034/Spreadsheet/Output_VIS17_PuTAss_CapaRestNo_InterlYes_v01.xlsx
@@ -738,13 +738,13 @@
     <t>sum of costs for fuel, repair, etc. depending on kilometric performance</t>
   </si>
   <si>
-    <t>11.07.2018 10:33:58</t>
+    <t>12.07.2018 13:15:22</t>
   </si>
   <si>
     <t>02_Grid</t>
   </si>
   <si>
-    <t>Tree_P_1_mult-cost-direct_MATCH_0.2_vs-first</t>
+    <t>Tree_P_1_mult-cost-dir_MATCH_0.2_vs-first</t>
   </si>
   <si>
     <t>Solution_NDP_S034</t>
@@ -753,10 +753,10 @@
     <t xml:space="preserve"> Considering the vehicle scheduling step before the timetabling, to reduce the overall costs</t>
   </si>
   <si>
-    <t>02_Grid_N01_S01_V008_VISUM17_EN_Tree_P_1_mult-cost-direct_MATCH_0.2_vs-first.ver</t>
+    <t>02_Grid_N01_S01_V008_VISUM17_EN_Tree_P_1_mult-cost-dir_MATCH_0.2_vs-first.ver</t>
   </si>
   <si>
-    <t>02_Grid_Linien_Tree_P_1_mult-cost-direct_MATCH_0.2_vs-first.net</t>
+    <t>02_Grid_Linien_Tree_P_1_mult-cost-dir_MATCH_0.2_vs-first.net</t>
   </si>
   <si>
     <t xml:space="preserve"> LinTim(Alexander Schiewe)</t>
@@ -1639,13 +1639,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441798</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1665,8 +1665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="12700"/>
-          <a:ext cx="5826911" cy="4749800"/>
+          <a:off x="0" y="12700"/>
+          <a:ext cx="5775798" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,13 +1678,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441798</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1704,8 +1704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="4965700"/>
-          <a:ext cx="5826911" cy="4749800"/>
+          <a:off x="0" y="4965700"/>
+          <a:ext cx="5775798" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,13 +1717,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>16662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441798</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1743,8 +1743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="9918700"/>
-          <a:ext cx="5826911" cy="4749800"/>
+          <a:off x="0" y="9918700"/>
+          <a:ext cx="5775798" cy="4749800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2688,7 +2688,7 @@
         <v>200</v>
       </c>
       <c r="C40" s="39">
-        <v>19.981574148319702</v>
+        <v>19.981574148319694</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>129</v>
@@ -2708,7 +2708,7 @@
         <v>201</v>
       </c>
       <c r="C41" s="39">
-        <v>0.24811369394873034</v>
+        <v>0.24811369394873037</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>42</v>
@@ -2729,7 +2729,7 @@
         <v>202</v>
       </c>
       <c r="C42" s="39">
-        <v>0.94147738095238098</v>
+        <v>0.9414773809523812</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>42</v>
@@ -2749,7 +2749,7 @@
         <v>204</v>
       </c>
       <c r="C43" s="40">
-        <v>1.7559714285714285</v>
+        <v>1.7559714285714287</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>42</v>
@@ -8350,16 +8350,16 @@
         <v>70</v>
       </c>
       <c r="K9" s="72">
-        <v>52.961999999999996</v>
+        <v>52.962000000000003</v>
       </c>
       <c r="L9" s="72">
-        <v>111.84300000000007</v>
+        <v>111.843</v>
       </c>
       <c r="M9" s="72">
         <v>24.375999999999998</v>
       </c>
       <c r="N9" s="72">
-        <v>164.80500000000006</v>
+        <v>164.80500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -8438,7 +8438,7 @@
         <v>70</v>
       </c>
       <c r="K11" s="72">
-        <v>26.369999999999997</v>
+        <v>26.37</v>
       </c>
       <c r="L11" s="72">
         <v>112.51499999999999</v>
@@ -8485,13 +8485,13 @@
         <v>28.523000000000003</v>
       </c>
       <c r="L12" s="72">
-        <v>102.74999999999997</v>
+        <v>102.75</v>
       </c>
       <c r="M12" s="72">
-        <v>36.134999999999998</v>
+        <v>36.135000000000005</v>
       </c>
       <c r="N12" s="72">
-        <v>131.27299999999997</v>
+        <v>131.273</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -8532,10 +8532,10 @@
         <v>101.339</v>
       </c>
       <c r="M13" s="72">
-        <v>29.933999999999997</v>
+        <v>29.934000000000001</v>
       </c>
       <c r="N13" s="72">
-        <v>119.45599999999999</v>
+        <v>119.456</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="72">
-        <v>119.45599999999999</v>
+        <v>119.456</v>
       </c>
       <c r="N14" s="72">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>70</v>
       </c>
       <c r="K15" s="72">
-        <v>139.49299999999999</v>
+        <v>139.49300000000002</v>
       </c>
       <c r="L15" s="72">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="72">
-        <v>139.49299999999999</v>
+        <v>139.49300000000002</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8649,13 +8649,13 @@
         <v>19.195999999999998</v>
       </c>
       <c r="L16" s="72">
-        <v>122.07800000000003</v>
+        <v>122.078</v>
       </c>
       <c r="M16" s="72">
         <v>17.414999999999999</v>
       </c>
       <c r="N16" s="72">
-        <v>141.27400000000003</v>
+        <v>141.274</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -10610,10 +10610,10 @@
         <v>70</v>
       </c>
       <c r="K62" s="72">
-        <v>17.649000000000004</v>
+        <v>17.649000000000001</v>
       </c>
       <c r="L62" s="72">
-        <v>34.221999999999994</v>
+        <v>34.222000000000001</v>
       </c>
       <c r="M62" s="72">
         <v>11.103999999999999</v>
@@ -10654,16 +10654,16 @@
         <v>70</v>
       </c>
       <c r="K63" s="72">
-        <v>20.841000000000005</v>
+        <v>20.841000000000001</v>
       </c>
       <c r="L63" s="72">
-        <v>41.685000000000002</v>
+        <v>41.684999999999995</v>
       </c>
       <c r="M63" s="72">
         <v>10.186</v>
       </c>
       <c r="N63" s="72">
-        <v>62.526000000000003</v>
+        <v>62.525999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -10698,13 +10698,13 @@
         <v>70</v>
       </c>
       <c r="K64" s="72">
-        <v>14.938000000000002</v>
+        <v>14.937999999999999</v>
       </c>
       <c r="L64" s="72">
-        <v>17.683999999999997</v>
+        <v>17.684000000000001</v>
       </c>
       <c r="M64" s="72">
-        <v>44.841999999999999</v>
+        <v>44.842000000000006</v>
       </c>
       <c r="N64" s="72">
         <v>32.622</v>
@@ -10745,13 +10745,13 @@
         <v>4.976</v>
       </c>
       <c r="L65" s="72">
-        <v>24.113000000000003</v>
+        <v>24.113</v>
       </c>
       <c r="M65" s="72">
         <v>8.5090000000000003</v>
       </c>
       <c r="N65" s="72">
-        <v>29.089000000000002</v>
+        <v>29.088999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -10789,13 +10789,13 @@
         <v>2.887</v>
       </c>
       <c r="L66" s="72">
-        <v>19.186999999999998</v>
+        <v>19.187000000000001</v>
       </c>
       <c r="M66" s="72">
         <v>9.9019999999999992</v>
       </c>
       <c r="N66" s="72">
-        <v>22.073999999999998</v>
+        <v>22.074000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -10836,10 +10836,10 @@
         <v>16.094999999999999</v>
       </c>
       <c r="M67" s="72">
-        <v>5.9790000000000001</v>
+        <v>5.9789999999999992</v>
       </c>
       <c r="N67" s="72">
-        <v>20.369999999999997</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="72">
-        <v>20.369999999999997</v>
+        <v>20.37</v>
       </c>
       <c r="N68" s="72">
         <v>0</v>
@@ -12958,10 +12958,10 @@
         <v>70</v>
       </c>
       <c r="K117" s="72">
-        <v>59.20900000000001</v>
+        <v>59.209000000000003</v>
       </c>
       <c r="L117" s="72">
-        <v>63.951999999999991</v>
+        <v>63.951999999999998</v>
       </c>
       <c r="M117" s="72">
         <v>87</v>
@@ -13005,13 +13005,13 @@
         <v>54.646000000000001</v>
       </c>
       <c r="L118" s="72">
-        <v>94.135000000000005</v>
+        <v>94.134999999999977</v>
       </c>
       <c r="M118" s="72">
         <v>29.026</v>
       </c>
       <c r="N118" s="72">
-        <v>148.78100000000001</v>
+        <v>148.78099999999998</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -13046,16 +13046,16 @@
         <v>70</v>
       </c>
       <c r="K119" s="72">
-        <v>40.726999999999997</v>
+        <v>40.727000000000004</v>
       </c>
       <c r="L119" s="72">
-        <v>95.457000000000022</v>
+        <v>95.456999999999994</v>
       </c>
       <c r="M119" s="72">
         <v>53.323999999999998</v>
       </c>
       <c r="N119" s="72">
-        <v>136.18400000000003</v>
+        <v>136.184</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -13093,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="72">
-        <v>136.18400000000003</v>
+        <v>136.184</v>
       </c>
       <c r="N120" s="72">
         <v>0</v>
@@ -13210,16 +13210,16 @@
         <v>70</v>
       </c>
       <c r="K123" s="72">
-        <v>35.237000000000009</v>
+        <v>35.237000000000002</v>
       </c>
       <c r="L123" s="72">
-        <v>86.038999999999973</v>
+        <v>86.039000000000016</v>
       </c>
       <c r="M123" s="72">
-        <v>65.635999999999996</v>
+        <v>65.63600000000001</v>
       </c>
       <c r="N123" s="72">
-        <v>121.27599999999998</v>
+        <v>121.27600000000001</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -14898,7 +14898,7 @@
         <v>70</v>
       </c>
       <c r="K163" s="72">
-        <v>113.30200000000001</v>
+        <v>113.30199999999999</v>
       </c>
       <c r="L163" s="72">
         <v>0</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="N163" s="72">
-        <v>113.30200000000001</v>
+        <v>113.30199999999999</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -14945,13 +14945,13 @@
         <v>89.477000000000004</v>
       </c>
       <c r="L164" s="72">
-        <v>92.212000000000018</v>
+        <v>92.211999999999989</v>
       </c>
       <c r="M164" s="72">
         <v>21.090000000000003</v>
       </c>
       <c r="N164" s="72">
-        <v>181.68900000000002</v>
+        <v>181.68899999999999</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -14989,13 +14989,13 @@
         <v>43.225999999999999</v>
       </c>
       <c r="L165" s="72">
-        <v>126.60999999999999</v>
+        <v>126.61000000000001</v>
       </c>
       <c r="M165" s="72">
-        <v>55.078999999999994</v>
+        <v>55.079000000000008</v>
       </c>
       <c r="N165" s="72">
-        <v>169.83599999999998</v>
+        <v>169.83600000000001</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -15030,16 +15030,16 @@
         <v>70</v>
       </c>
       <c r="K166" s="72">
-        <v>27.663000000000004</v>
+        <v>27.663</v>
       </c>
       <c r="L166" s="72">
-        <v>47.565999999999981</v>
+        <v>47.566000000000017</v>
       </c>
       <c r="M166" s="72">
-        <v>122.26999999999998</v>
+        <v>122.27</v>
       </c>
       <c r="N166" s="72">
-        <v>75.228999999999985</v>
+        <v>75.229000000000013</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -15080,7 +15080,7 @@
         <v>58.718000000000004</v>
       </c>
       <c r="M167" s="72">
-        <v>16.510999999999999</v>
+        <v>16.511000000000003</v>
       </c>
       <c r="N167" s="72">
         <v>114.12</v>
@@ -15124,10 +15124,10 @@
         <v>71.064999999999998</v>
       </c>
       <c r="M168" s="72">
-        <v>43.055</v>
+        <v>43.054999999999993</v>
       </c>
       <c r="N168" s="72">
-        <v>90.748000000000005</v>
+        <v>90.74799999999999</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="M169" s="72">
-        <v>90.748000000000005</v>
+        <v>90.74799999999999</v>
       </c>
       <c r="N169" s="72">
         <v>0</v>
@@ -16466,10 +16466,10 @@
         <v>70</v>
       </c>
       <c r="K200" s="72">
-        <v>109.89999999999998</v>
+        <v>109.9</v>
       </c>
       <c r="L200" s="72">
-        <v>37.126000000000033</v>
+        <v>37.126000000000005</v>
       </c>
       <c r="M200" s="72">
         <v>181.214</v>
@@ -16513,13 +16513,13 @@
         <v>29.783999999999999</v>
       </c>
       <c r="L201" s="72">
-        <v>91.484000000000009</v>
+        <v>91.484000000000037</v>
       </c>
       <c r="M201" s="72">
         <v>55.542000000000002</v>
       </c>
       <c r="N201" s="72">
-        <v>121.268</v>
+        <v>121.26800000000003</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="M202" s="72">
-        <v>121.268</v>
+        <v>121.26800000000003</v>
       </c>
       <c r="N202" s="72">
         <v>0</v>
@@ -16630,16 +16630,16 @@
         <v>70</v>
       </c>
       <c r="K204" s="72">
-        <v>57.111000000000004</v>
+        <v>57.110999999999997</v>
       </c>
       <c r="L204" s="72">
-        <v>102.996</v>
+        <v>102.99599999999998</v>
       </c>
       <c r="M204" s="72">
         <v>22.192</v>
       </c>
       <c r="N204" s="72">
-        <v>160.107</v>
+        <v>160.10699999999997</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -17834,7 +17834,7 @@
         <v>70</v>
       </c>
       <c r="K233" s="72">
-        <v>126.66699999999997</v>
+        <v>126.66700000000002</v>
       </c>
       <c r="L233" s="72">
         <v>0</v>
@@ -17843,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="N233" s="72">
-        <v>126.66699999999997</v>
+        <v>126.66700000000002</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -17881,13 +17881,13 @@
         <v>102.80600000000001</v>
       </c>
       <c r="L234" s="72">
-        <v>98.398999999999972</v>
+        <v>98.399000000000029</v>
       </c>
       <c r="M234" s="72">
         <v>28.268000000000001</v>
       </c>
       <c r="N234" s="72">
-        <v>201.20499999999998</v>
+        <v>201.20500000000004</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -17922,13 +17922,13 @@
         <v>70</v>
       </c>
       <c r="K235" s="72">
-        <v>66.557000000000016</v>
+        <v>66.556999999999988</v>
       </c>
       <c r="L235" s="72">
-        <v>39.482999999999976</v>
+        <v>39.483000000000004</v>
       </c>
       <c r="M235" s="72">
-        <v>161.72200000000001</v>
+        <v>161.72199999999998</v>
       </c>
       <c r="N235" s="72">
         <v>106.03999999999999</v>
@@ -19217,13 +19217,13 @@
         <v>54.879000000000005</v>
       </c>
       <c r="L266" s="72">
-        <v>86.360000000000028</v>
+        <v>86.36</v>
       </c>
       <c r="M266" s="72">
         <v>31.945</v>
       </c>
       <c r="N266" s="72">
-        <v>141.23900000000003</v>
+        <v>141.239</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
@@ -19258,7 +19258,7 @@
         <v>70</v>
       </c>
       <c r="K267" s="72">
-        <v>34.212999999999994</v>
+        <v>34.213000000000001</v>
       </c>
       <c r="L267" s="72">
         <v>97.561000000000007</v>
@@ -19346,10 +19346,10 @@
         <v>70</v>
       </c>
       <c r="K269" s="72">
-        <v>48.448</v>
+        <v>48.448000000000008</v>
       </c>
       <c r="L269" s="72">
-        <v>61.074000000000005</v>
+        <v>61.073999999999998</v>
       </c>
       <c r="M269" s="72">
         <v>16.372999999999998</v>
@@ -20829,13 +20829,13 @@
         <v>100.316</v>
       </c>
       <c r="L304" s="72">
-        <v>85.000000000000028</v>
+        <v>85</v>
       </c>
       <c r="M304" s="72">
         <v>17.501000000000001</v>
       </c>
       <c r="N304" s="72">
-        <v>185.31600000000003</v>
+        <v>185.316</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -20873,13 +20873,13 @@
         <v>25.79</v>
       </c>
       <c r="L305" s="72">
-        <v>93.741000000000014</v>
+        <v>93.740999999999985</v>
       </c>
       <c r="M305" s="72">
         <v>91.575000000000017</v>
       </c>
       <c r="N305" s="72">
-        <v>119.53100000000002</v>
+        <v>119.53099999999999</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -20917,7 +20917,7 @@
         <v>0</v>
       </c>
       <c r="M306" s="72">
-        <v>119.53100000000002</v>
+        <v>119.53099999999999</v>
       </c>
       <c r="N306" s="72">
         <v>0</v>
@@ -21034,16 +21034,16 @@
         <v>70</v>
       </c>
       <c r="K309" s="72">
-        <v>40.465999999999994</v>
+        <v>40.466000000000001</v>
       </c>
       <c r="L309" s="72">
-        <v>140.77200000000005</v>
+        <v>140.77199999999999</v>
       </c>
       <c r="M309" s="72">
         <v>97.426000000000002</v>
       </c>
       <c r="N309" s="72">
-        <v>181.23800000000003</v>
+        <v>181.238</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -21084,7 +21084,7 @@
         <v>53.98</v>
       </c>
       <c r="M310" s="72">
-        <v>127.258</v>
+        <v>127.25800000000001</v>
       </c>
       <c r="N310" s="72">
         <v>87.259</v>
@@ -22740,7 +22740,7 @@
         <v>75.831999999999994</v>
       </c>
       <c r="M349" s="72">
-        <v>49.418000000000006</v>
+        <v>49.417999999999992</v>
       </c>
       <c r="N349" s="72">
         <v>90.064999999999998</v>
@@ -22810,7 +22810,7 @@
         <v>70</v>
       </c>
       <c r="K351" s="72">
-        <v>100.69999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="L351" s="72">
         <v>0</v>
@@ -22819,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="N351" s="72">
-        <v>100.69999999999999</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -22901,13 +22901,13 @@
         <v>23.488</v>
       </c>
       <c r="L353" s="72">
-        <v>93.323000000000008</v>
+        <v>93.322999999999993</v>
       </c>
       <c r="M353" s="72">
         <v>24.780999999999999</v>
       </c>
       <c r="N353" s="72">
-        <v>116.81100000000001</v>
+        <v>116.81099999999999</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
@@ -22989,13 +22989,13 @@
         <v>31.738</v>
       </c>
       <c r="L355" s="72">
-        <v>52.232999999999976</v>
+        <v>52.233000000000004</v>
       </c>
       <c r="M355" s="72">
-        <v>71.248000000000019</v>
+        <v>71.248000000000005</v>
       </c>
       <c r="N355" s="72">
-        <v>83.970999999999975</v>
+        <v>83.971000000000004</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -23030,13 +23030,13 @@
         <v>70</v>
       </c>
       <c r="K356" s="72">
-        <v>41.027999999999999</v>
+        <v>41.028000000000006</v>
       </c>
       <c r="L356" s="72">
-        <v>59.105999999999987</v>
+        <v>59.10599999999998</v>
       </c>
       <c r="M356" s="72">
-        <v>24.865000000000002</v>
+        <v>24.864999999999998</v>
       </c>
       <c r="N356" s="72">
         <v>100.13399999999999</v>
@@ -23080,7 +23080,7 @@
         <v>85.691999999999993</v>
       </c>
       <c r="M357" s="72">
-        <v>14.441999999999998</v>
+        <v>14.442</v>
       </c>
       <c r="N357" s="72">
         <v>104.71899999999999</v>
@@ -24950,10 +24950,10 @@
         <v>70</v>
       </c>
       <c r="K401" s="72">
-        <v>37.349999999999994</v>
+        <v>37.35</v>
       </c>
       <c r="L401" s="72">
-        <v>63.215000000000003</v>
+        <v>63.214999999999996</v>
       </c>
       <c r="M401" s="72">
         <v>12.571999999999999</v>
@@ -25000,7 +25000,7 @@
         <v>87.408999999999992</v>
       </c>
       <c r="M402" s="72">
-        <v>13.156000000000001</v>
+        <v>13.155999999999999</v>
       </c>
       <c r="N402" s="72">
         <v>139.07599999999999</v>
@@ -25290,16 +25290,16 @@
         <v>70</v>
       </c>
       <c r="K409" s="72">
-        <v>24.645000000000003</v>
+        <v>24.645</v>
       </c>
       <c r="L409" s="72">
-        <v>38.130999999999993</v>
+        <v>38.131</v>
       </c>
       <c r="M409" s="72">
-        <v>90.4</v>
+        <v>90.399999999999991</v>
       </c>
       <c r="N409" s="72">
-        <v>62.775999999999996</v>
+        <v>62.776000000000003</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.25">
@@ -27418,7 +27418,7 @@
         <v>70</v>
       </c>
       <c r="K459" s="72">
-        <v>111.97700000000002</v>
+        <v>111.977</v>
       </c>
       <c r="L459" s="72">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="N459" s="72">
-        <v>111.97700000000002</v>
+        <v>111.977</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.25">
@@ -27471,7 +27471,7 @@
         <v>9.1769999999999996</v>
       </c>
       <c r="N460" s="72">
-        <v>127.78400000000001</v>
+        <v>127.78400000000002</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.25">
@@ -27506,16 +27506,16 @@
         <v>70</v>
       </c>
       <c r="K461" s="72">
-        <v>18.953999999999997</v>
+        <v>18.954000000000001</v>
       </c>
       <c r="L461" s="72">
-        <v>99.433000000000007</v>
+        <v>99.433000000000021</v>
       </c>
       <c r="M461" s="72">
-        <v>28.351000000000003</v>
+        <v>28.350999999999999</v>
       </c>
       <c r="N461" s="72">
-        <v>118.387</v>
+        <v>118.38700000000001</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.25">
@@ -27550,16 +27550,16 @@
         <v>70</v>
       </c>
       <c r="K462" s="72">
-        <v>22.623000000000005</v>
+        <v>22.623000000000001</v>
       </c>
       <c r="L462" s="72">
-        <v>105.87500000000004</v>
+        <v>105.87500000000001</v>
       </c>
       <c r="M462" s="72">
         <v>12.512</v>
       </c>
       <c r="N462" s="72">
-        <v>128.49800000000005</v>
+        <v>128.49800000000002</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.25">
@@ -27594,13 +27594,13 @@
         <v>70</v>
       </c>
       <c r="K463" s="72">
-        <v>19.881999999999998</v>
+        <v>19.882000000000001</v>
       </c>
       <c r="L463" s="72">
         <v>65.813999999999993</v>
       </c>
       <c r="M463" s="72">
-        <v>62.684000000000012</v>
+        <v>62.684000000000005</v>
       </c>
       <c r="N463" s="72">
         <v>85.695999999999998</v>
@@ -27638,16 +27638,16 @@
         <v>70</v>
       </c>
       <c r="K464" s="72">
-        <v>69.308999999999997</v>
+        <v>69.309000000000012</v>
       </c>
       <c r="L464" s="72">
-        <v>60.581999999999994</v>
+        <v>60.582000000000008</v>
       </c>
       <c r="M464" s="72">
-        <v>25.113999999999997</v>
+        <v>25.114000000000004</v>
       </c>
       <c r="N464" s="72">
-        <v>129.89099999999999</v>
+        <v>129.89100000000002</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.25">
@@ -27682,13 +27682,13 @@
         <v>70</v>
       </c>
       <c r="K465" s="72">
-        <v>50.378999999999998</v>
+        <v>50.379000000000005</v>
       </c>
       <c r="L465" s="72">
-        <v>112.98300000000003</v>
+        <v>112.98300000000002</v>
       </c>
       <c r="M465" s="72">
-        <v>16.908000000000001</v>
+        <v>16.907999999999998</v>
       </c>
       <c r="N465" s="72">
         <v>163.36200000000002</v>
@@ -29605,13 +29605,13 @@
         <v>8.9169999999999998</v>
       </c>
       <c r="L510" s="72">
-        <v>28.314000000000007</v>
+        <v>28.313999999999993</v>
       </c>
       <c r="M510" s="72">
-        <v>11.722</v>
+        <v>11.722000000000001</v>
       </c>
       <c r="N510" s="72">
-        <v>37.231000000000009</v>
+        <v>37.230999999999995</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.25">
@@ -29722,7 +29722,7 @@
         <v>70</v>
       </c>
       <c r="K513" s="72">
-        <v>36.337000000000003</v>
+        <v>36.336999999999996</v>
       </c>
       <c r="L513" s="72">
         <v>0</v>
@@ -29731,7 +29731,7 @@
         <v>0</v>
       </c>
       <c r="N513" s="72">
-        <v>36.337000000000003</v>
+        <v>36.336999999999996</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.25">
@@ -29769,13 +29769,13 @@
         <v>35.798000000000002</v>
       </c>
       <c r="L514" s="72">
-        <v>32.788000000000011</v>
+        <v>32.787999999999997</v>
       </c>
       <c r="M514" s="72">
         <v>3.5489999999999999</v>
       </c>
       <c r="N514" s="72">
-        <v>68.586000000000013</v>
+        <v>68.585999999999999</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.25">
@@ -29813,13 +29813,13 @@
         <v>23.978999999999999</v>
       </c>
       <c r="L515" s="72">
-        <v>48.750000000000014</v>
+        <v>48.75</v>
       </c>
       <c r="M515" s="72">
         <v>19.835999999999999</v>
       </c>
       <c r="N515" s="72">
-        <v>72.729000000000013</v>
+        <v>72.728999999999999</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.25">
@@ -29854,16 +29854,16 @@
         <v>70</v>
       </c>
       <c r="K516" s="72">
-        <v>27.037999999999997</v>
+        <v>27.038</v>
       </c>
       <c r="L516" s="72">
-        <v>49.027000000000015</v>
+        <v>49.027000000000001</v>
       </c>
       <c r="M516" s="72">
         <v>23.701999999999998</v>
       </c>
       <c r="N516" s="72">
-        <v>76.065000000000012</v>
+        <v>76.064999999999998</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.25">
@@ -29904,7 +29904,7 @@
         <v>21.161000000000001</v>
       </c>
       <c r="M517" s="72">
-        <v>54.904000000000011</v>
+        <v>54.904000000000003</v>
       </c>
       <c r="N517" s="72">
         <v>33.363</v>
@@ -31988,7 +31988,7 @@
         <v>17.318000000000001</v>
       </c>
       <c r="M566" s="72">
-        <v>50.897999999999996</v>
+        <v>50.89800000000001</v>
       </c>
       <c r="N566" s="72">
         <v>35.039000000000001</v>
@@ -32032,7 +32032,7 @@
         <v>18.343000000000004</v>
       </c>
       <c r="M567" s="72">
-        <v>16.696000000000002</v>
+        <v>16.695999999999998</v>
       </c>
       <c r="N567" s="72">
         <v>34.197000000000003</v>
@@ -32070,16 +32070,16 @@
         <v>70</v>
       </c>
       <c r="K568" s="72">
-        <v>13.783999999999999</v>
+        <v>13.784000000000001</v>
       </c>
       <c r="L568" s="72">
-        <v>14.494</v>
+        <v>14.494000000000002</v>
       </c>
       <c r="M568" s="72">
         <v>19.703000000000003</v>
       </c>
       <c r="N568" s="72">
-        <v>28.277999999999999</v>
+        <v>28.278000000000002</v>
       </c>
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.25">
@@ -32117,7 +32117,7 @@
         <v>0</v>
       </c>
       <c r="M569" s="72">
-        <v>28.277999999999999</v>
+        <v>28.278000000000002</v>
       </c>
       <c r="N569" s="72">
         <v>0</v>
@@ -33450,16 +33450,16 @@
         <v>70</v>
       </c>
       <c r="K601" s="72">
-        <v>77.315000000000012</v>
+        <v>77.314999999999998</v>
       </c>
       <c r="L601" s="72">
-        <v>32.493999999999971</v>
+        <v>32.494</v>
       </c>
       <c r="M601" s="72">
         <v>12.483000000000001</v>
       </c>
       <c r="N601" s="72">
-        <v>109.80899999999998</v>
+        <v>109.809</v>
       </c>
     </row>
     <row r="602" spans="1:14" x14ac:dyDescent="0.25">
@@ -33500,7 +33500,7 @@
         <v>65.307000000000016</v>
       </c>
       <c r="M602" s="72">
-        <v>44.502000000000002</v>
+        <v>44.501999999999995</v>
       </c>
       <c r="N602" s="72">
         <v>130.59800000000001</v>
@@ -33538,16 +33538,16 @@
         <v>70</v>
       </c>
       <c r="K603" s="72">
-        <v>27.827999999999999</v>
+        <v>27.828000000000003</v>
       </c>
       <c r="L603" s="72">
-        <v>56.122</v>
+        <v>56.122000000000014</v>
       </c>
       <c r="M603" s="72">
         <v>74.475999999999999</v>
       </c>
       <c r="N603" s="72">
-        <v>83.95</v>
+        <v>83.950000000000017</v>
       </c>
     </row>
     <row r="604" spans="1:14" x14ac:dyDescent="0.25">
@@ -33582,13 +33582,13 @@
         <v>70</v>
       </c>
       <c r="K604" s="72">
-        <v>29.744000000000003</v>
+        <v>29.744</v>
       </c>
       <c r="L604" s="72">
         <v>65.580000000000013</v>
       </c>
       <c r="M604" s="72">
-        <v>18.369999999999997</v>
+        <v>18.37</v>
       </c>
       <c r="N604" s="72">
         <v>95.324000000000012</v>
@@ -34757,13 +34757,13 @@
         <v>58.372</v>
       </c>
       <c r="L632" s="72">
-        <v>27.673000000000002</v>
+        <v>27.672999999999988</v>
       </c>
       <c r="M632" s="72">
-        <v>13.851000000000001</v>
+        <v>13.850999999999999</v>
       </c>
       <c r="N632" s="72">
-        <v>86.045000000000002</v>
+        <v>86.044999999999987</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
@@ -34798,16 +34798,16 @@
         <v>70</v>
       </c>
       <c r="K633" s="72">
-        <v>19.995999999999999</v>
+        <v>19.996000000000002</v>
       </c>
       <c r="L633" s="72">
-        <v>18.603000000000005</v>
+        <v>18.602999999999994</v>
       </c>
       <c r="M633" s="72">
         <v>67.442000000000007</v>
       </c>
       <c r="N633" s="72">
-        <v>38.599000000000004</v>
+        <v>38.598999999999997</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.25">
@@ -34848,7 +34848,7 @@
         <v>22.433999999999997</v>
       </c>
       <c r="M634" s="72">
-        <v>16.164999999999999</v>
+        <v>16.165000000000003</v>
       </c>
       <c r="N634" s="72">
         <v>46.808999999999997</v>
@@ -36480,7 +36480,7 @@
         <v>42.219000000000008</v>
       </c>
       <c r="M673" s="72">
-        <v>30.12</v>
+        <v>30.119999999999997</v>
       </c>
       <c r="N673" s="72">
         <v>66.64500000000001</v>
@@ -36518,10 +36518,10 @@
         <v>70</v>
       </c>
       <c r="K674" s="72">
-        <v>20.226999999999997</v>
+        <v>20.227</v>
       </c>
       <c r="L674" s="72">
-        <v>18.286999999999999</v>
+        <v>18.286999999999995</v>
       </c>
       <c r="M674" s="72">
         <v>48.358000000000004</v>
@@ -36565,13 +36565,13 @@
         <v>24.695</v>
       </c>
       <c r="L675" s="72">
-        <v>22.589000000000006</v>
+        <v>22.588999999999999</v>
       </c>
       <c r="M675" s="72">
         <v>15.925000000000001</v>
       </c>
       <c r="N675" s="72">
-        <v>47.284000000000006</v>
+        <v>47.283999999999999</v>
       </c>
     </row>
     <row r="676" spans="1:14" x14ac:dyDescent="0.25">
@@ -36612,7 +36612,7 @@
         <v>25.448000000000004</v>
       </c>
       <c r="M676" s="72">
-        <v>21.836000000000002</v>
+        <v>21.835999999999999</v>
       </c>
       <c r="N676" s="72">
         <v>32.995000000000005</v>
@@ -37942,7 +37942,7 @@
         <v>70</v>
       </c>
       <c r="K708" s="72">
-        <v>60.860999999999997</v>
+        <v>60.861000000000004</v>
       </c>
       <c r="L708" s="72">
         <v>0</v>
@@ -37951,7 +37951,7 @@
         <v>0</v>
       </c>
       <c r="N708" s="72">
-        <v>60.860999999999997</v>
+        <v>60.861000000000004</v>
       </c>
     </row>
     <row r="709" spans="1:14" x14ac:dyDescent="0.25">
@@ -37989,13 +37989,13 @@
         <v>37.058000000000007</v>
       </c>
       <c r="L709" s="72">
-        <v>43.213999999999984</v>
+        <v>43.21399999999997</v>
       </c>
       <c r="M709" s="72">
         <v>17.646999999999998</v>
       </c>
       <c r="N709" s="72">
-        <v>80.271999999999991</v>
+        <v>80.271999999999977</v>
       </c>
     </row>
     <row r="710" spans="1:14" x14ac:dyDescent="0.25">
@@ -38033,13 +38033,13 @@
         <v>22.164999999999999</v>
       </c>
       <c r="L710" s="72">
-        <v>49.243000000000016</v>
+        <v>49.243000000000002</v>
       </c>
       <c r="M710" s="72">
-        <v>31.028999999999996</v>
+        <v>31.029000000000003</v>
       </c>
       <c r="N710" s="72">
-        <v>71.408000000000015</v>
+        <v>71.408000000000001</v>
       </c>
     </row>
     <row r="711" spans="1:14" x14ac:dyDescent="0.25">
@@ -38077,13 +38077,13 @@
         <v>10.433</v>
       </c>
       <c r="L711" s="72">
-        <v>20.719000000000005</v>
+        <v>20.719000000000001</v>
       </c>
       <c r="M711" s="72">
         <v>50.689</v>
       </c>
       <c r="N711" s="72">
-        <v>31.152000000000005</v>
+        <v>31.152000000000001</v>
       </c>
     </row>
     <row r="712" spans="1:14" x14ac:dyDescent="0.25">
@@ -38121,13 +38121,13 @@
         <v>16.993000000000002</v>
       </c>
       <c r="L712" s="72">
-        <v>22.745999999999995</v>
+        <v>22.746000000000002</v>
       </c>
       <c r="M712" s="72">
         <v>8.4059999999999988</v>
       </c>
       <c r="N712" s="72">
-        <v>39.738999999999997</v>
+        <v>39.739000000000004</v>
       </c>
     </row>
     <row r="713" spans="1:14" x14ac:dyDescent="0.25">
@@ -38165,7 +38165,7 @@
         <v>0</v>
       </c>
       <c r="M713" s="72">
-        <v>39.738999999999997</v>
+        <v>39.739000000000004</v>
       </c>
       <c r="N713" s="72">
         <v>0</v>
@@ -39425,7 +39425,7 @@
         <v>0</v>
       </c>
       <c r="M743" s="72">
-        <v>47.034999999999997</v>
+        <v>47.035000000000004</v>
       </c>
       <c r="N743" s="72">
         <v>0</v>
@@ -39454,7 +39454,7 @@
         <v>70</v>
       </c>
       <c r="K744" s="72">
-        <v>70.13900000000001</v>
+        <v>70.138999999999996</v>
       </c>
       <c r="L744" s="72">
         <v>0</v>
@@ -39463,7 +39463,7 @@
         <v>0</v>
       </c>
       <c r="N744" s="72">
-        <v>70.13900000000001</v>
+        <v>70.138999999999996</v>
       </c>
     </row>
     <row r="745" spans="1:14" x14ac:dyDescent="0.25">
@@ -39498,16 +39498,16 @@
         <v>70</v>
       </c>
       <c r="K745" s="72">
-        <v>18.965000000000003</v>
+        <v>18.965</v>
       </c>
       <c r="L745" s="72">
-        <v>44.692999999999991</v>
+        <v>44.692999999999998</v>
       </c>
       <c r="M745" s="72">
         <v>25.445999999999998</v>
       </c>
       <c r="N745" s="72">
-        <v>63.657999999999994</v>
+        <v>63.658000000000001</v>
       </c>
     </row>
     <row r="746" spans="1:14" x14ac:dyDescent="0.25">
@@ -39542,10 +39542,10 @@
         <v>70</v>
       </c>
       <c r="K746" s="72">
-        <v>18.813000000000002</v>
+        <v>18.812999999999999</v>
       </c>
       <c r="L746" s="72">
-        <v>18.298000000000002</v>
+        <v>18.298000000000005</v>
       </c>
       <c r="M746" s="72">
         <v>45.36</v>
@@ -39586,10 +39586,10 @@
         <v>70</v>
       </c>
       <c r="K747" s="72">
-        <v>19.496000000000002</v>
+        <v>19.495999999999995</v>
       </c>
       <c r="L747" s="72">
-        <v>23.576000000000001</v>
+        <v>23.576000000000008</v>
       </c>
       <c r="M747" s="72">
         <v>13.535</v>
@@ -39633,13 +39633,13 @@
         <v>7.4130000000000003</v>
       </c>
       <c r="L748" s="72">
-        <v>31.580000000000002</v>
+        <v>31.579999999999995</v>
       </c>
       <c r="M748" s="72">
         <v>11.492000000000001</v>
       </c>
       <c r="N748" s="72">
-        <v>38.993000000000002</v>
+        <v>38.992999999999995</v>
       </c>
     </row>
     <row r="749" spans="1:14" x14ac:dyDescent="0.25">
@@ -40852,7 +40852,7 @@
         <v>39.722999999999999</v>
       </c>
       <c r="M777" s="72">
-        <v>55.35</v>
+        <v>55.349999999999994</v>
       </c>
       <c r="N777" s="72">
         <v>63.634</v>
@@ -40896,7 +40896,7 @@
         <v>16.702999999999999</v>
       </c>
       <c r="M778" s="72">
-        <v>46.931000000000004</v>
+        <v>46.930999999999997</v>
       </c>
       <c r="N778" s="72">
         <v>20.808</v>
@@ -40966,7 +40966,7 @@
         <v>70</v>
       </c>
       <c r="K780" s="72">
-        <v>88.72999999999999</v>
+        <v>88.73</v>
       </c>
       <c r="L780" s="72">
         <v>0</v>
@@ -40975,7 +40975,7 @@
         <v>0</v>
       </c>
       <c r="N780" s="72">
-        <v>88.72999999999999</v>
+        <v>88.73</v>
       </c>
     </row>
     <row r="781" spans="1:14" x14ac:dyDescent="0.25">
@@ -41016,7 +41016,7 @@
         <v>46.567000000000007</v>
       </c>
       <c r="M781" s="72">
-        <v>42.163000000000004</v>
+        <v>42.162999999999997</v>
       </c>
       <c r="N781" s="72">
         <v>114.536</v>
@@ -42525,13 +42525,13 @@
         <v>72.481999999999999</v>
       </c>
       <c r="L817" s="72">
-        <v>44.642999999999986</v>
+        <v>44.643000000000001</v>
       </c>
       <c r="M817" s="72">
-        <v>15.955</v>
+        <v>15.955000000000002</v>
       </c>
       <c r="N817" s="72">
-        <v>117.12499999999999</v>
+        <v>117.125</v>
       </c>
     </row>
     <row r="818" spans="1:14" x14ac:dyDescent="0.25">
@@ -42569,13 +42569,13 @@
         <v>26.519000000000005</v>
       </c>
       <c r="L818" s="72">
-        <v>67.85799999999999</v>
+        <v>67.857999999999976</v>
       </c>
       <c r="M818" s="72">
-        <v>49.26700000000001</v>
+        <v>49.266999999999996</v>
       </c>
       <c r="N818" s="72">
-        <v>94.376999999999995</v>
+        <v>94.376999999999981</v>
       </c>
     </row>
     <row r="819" spans="1:14" x14ac:dyDescent="0.25">
@@ -42616,7 +42616,7 @@
         <v>51.878000000000007</v>
       </c>
       <c r="M819" s="72">
-        <v>42.498999999999995</v>
+        <v>42.499000000000002</v>
       </c>
       <c r="N819" s="72">
         <v>69.62</v>
@@ -44034,16 +44034,16 @@
         <v>70</v>
       </c>
       <c r="K853" s="72">
-        <v>42.803000000000004</v>
+        <v>42.802999999999997</v>
       </c>
       <c r="L853" s="72">
-        <v>49.304000000000023</v>
+        <v>49.304000000000002</v>
       </c>
       <c r="M853" s="72">
         <v>25.483000000000001</v>
       </c>
       <c r="N853" s="72">
-        <v>92.107000000000028</v>
+        <v>92.106999999999999</v>
       </c>
     </row>
     <row r="854" spans="1:14" x14ac:dyDescent="0.25">
@@ -44081,13 +44081,13 @@
         <v>32.891000000000005</v>
       </c>
       <c r="L854" s="72">
-        <v>18.034000000000006</v>
+        <v>18.033999999999999</v>
       </c>
       <c r="M854" s="72">
         <v>74.073000000000008</v>
       </c>
       <c r="N854" s="72">
-        <v>50.925000000000011</v>
+        <v>50.925000000000004</v>
       </c>
     </row>
     <row r="855" spans="1:14" x14ac:dyDescent="0.25">
@@ -44125,13 +44125,13 @@
         <v>16.679000000000002</v>
       </c>
       <c r="L855" s="72">
-        <v>28.698</v>
+        <v>28.697999999999993</v>
       </c>
       <c r="M855" s="72">
-        <v>22.227</v>
+        <v>22.226999999999997</v>
       </c>
       <c r="N855" s="72">
-        <v>45.377000000000002</v>
+        <v>45.376999999999995</v>
       </c>
     </row>
     <row r="856" spans="1:14" x14ac:dyDescent="0.25">
@@ -44169,13 +44169,13 @@
         <v>7.6749999999999998</v>
       </c>
       <c r="L856" s="72">
-        <v>8.9039999999999999</v>
+        <v>8.9039999999999964</v>
       </c>
       <c r="M856" s="72">
         <v>36.472999999999999</v>
       </c>
       <c r="N856" s="72">
-        <v>16.579000000000001</v>
+        <v>16.578999999999997</v>
       </c>
     </row>
     <row r="857" spans="1:14" x14ac:dyDescent="0.25">
@@ -45546,10 +45546,10 @@
         <v>70</v>
       </c>
       <c r="K889" s="72">
-        <v>60.471999999999994</v>
+        <v>60.472000000000008</v>
       </c>
       <c r="L889" s="72">
-        <v>18.561999999999998</v>
+        <v>18.561999999999983</v>
       </c>
       <c r="M889" s="72">
         <v>6.2780000000000005</v>
@@ -45637,13 +45637,13 @@
         <v>22.265000000000001</v>
       </c>
       <c r="L891" s="72">
-        <v>23.672000000000004</v>
+        <v>23.671999999999997</v>
       </c>
       <c r="M891" s="72">
         <v>71.186000000000007</v>
       </c>
       <c r="N891" s="72">
-        <v>45.937000000000005</v>
+        <v>45.936999999999998</v>
       </c>
     </row>
     <row r="892" spans="1:14" x14ac:dyDescent="0.25">
@@ -45684,7 +45684,7 @@
         <v>21.978999999999999</v>
       </c>
       <c r="M892" s="72">
-        <v>23.957999999999998</v>
+        <v>23.958000000000002</v>
       </c>
       <c r="N892" s="72">
         <v>41.847999999999999</v>
@@ -47064,7 +47064,7 @@
         <v>58.643999999999998</v>
       </c>
       <c r="M925" s="72">
-        <v>25.417999999999999</v>
+        <v>25.418000000000003</v>
       </c>
       <c r="N925" s="72">
         <v>79.741</v>
@@ -47102,7 +47102,7 @@
         <v>70</v>
       </c>
       <c r="K926" s="72">
-        <v>10.388</v>
+        <v>10.387999999999998</v>
       </c>
       <c r="L926" s="72">
         <v>18.03</v>
@@ -47146,16 +47146,16 @@
         <v>70</v>
       </c>
       <c r="K927" s="72">
-        <v>16.661000000000001</v>
+        <v>16.660999999999998</v>
       </c>
       <c r="L927" s="72">
-        <v>18.021999999999991</v>
+        <v>18.022000000000002</v>
       </c>
       <c r="M927" s="72">
         <v>10.396000000000001</v>
       </c>
       <c r="N927" s="72">
-        <v>34.682999999999993</v>
+        <v>34.683</v>
       </c>
     </row>
     <row r="928" spans="1:14" x14ac:dyDescent="0.25">
@@ -47190,13 +47190,13 @@
         <v>70</v>
       </c>
       <c r="K928" s="72">
-        <v>21.957999999999998</v>
+        <v>21.958000000000002</v>
       </c>
       <c r="L928" s="72">
-        <v>11.947000000000003</v>
+        <v>11.946999999999999</v>
       </c>
       <c r="M928" s="72">
-        <v>22.736000000000001</v>
+        <v>22.735999999999997</v>
       </c>
       <c r="N928" s="72">
         <v>33.905000000000001</v>
@@ -48409,13 +48409,13 @@
         <v>14.917999999999999</v>
       </c>
       <c r="L957" s="72">
-        <v>25.150999999999996</v>
+        <v>25.151000000000003</v>
       </c>
       <c r="M957" s="72">
         <v>44.308</v>
       </c>
       <c r="N957" s="72">
-        <v>40.068999999999996</v>
+        <v>40.069000000000003</v>
       </c>
     </row>
     <row r="958" spans="1:14" x14ac:dyDescent="0.25">
@@ -48450,16 +48450,16 @@
         <v>70</v>
       </c>
       <c r="K958" s="72">
-        <v>11.704000000000001</v>
+        <v>11.703999999999999</v>
       </c>
       <c r="L958" s="72">
-        <v>25.088999999999992</v>
+        <v>25.088999999999999</v>
       </c>
       <c r="M958" s="72">
         <v>14.98</v>
       </c>
       <c r="N958" s="72">
-        <v>36.792999999999992</v>
+        <v>36.792999999999999</v>
       </c>
     </row>
     <row r="959" spans="1:14" x14ac:dyDescent="0.25">
@@ -48497,7 +48497,7 @@
         <v>0</v>
       </c>
       <c r="M959" s="72">
-        <v>36.792999999999992</v>
+        <v>36.792999999999999</v>
       </c>
       <c r="N959" s="72">
         <v>0</v>
@@ -48526,7 +48526,7 @@
         <v>70</v>
       </c>
       <c r="K960" s="72">
-        <v>52.115000000000002</v>
+        <v>52.114999999999995</v>
       </c>
       <c r="L960" s="72">
         <v>0</v>
@@ -48535,7 +48535,7 @@
         <v>0</v>
       </c>
       <c r="N960" s="72">
-        <v>52.115000000000002</v>
+        <v>52.114999999999995</v>
       </c>
     </row>
     <row r="961" spans="1:14" x14ac:dyDescent="0.25">
@@ -48620,7 +48620,7 @@
         <v>45.724000000000004</v>
       </c>
       <c r="M962" s="72">
-        <v>25.879000000000001</v>
+        <v>25.878999999999998</v>
       </c>
       <c r="N962" s="72">
         <v>64.254000000000005</v>
@@ -50038,7 +50038,7 @@
         <v>70</v>
       </c>
       <c r="K996" s="72">
-        <v>59.436999999999998</v>
+        <v>59.437000000000005</v>
       </c>
       <c r="L996" s="72">
         <v>0</v>
@@ -50047,7 +50047,7 @@
         <v>0</v>
       </c>
       <c r="N996" s="72">
-        <v>59.436999999999998</v>
+        <v>59.437000000000005</v>
       </c>
     </row>
     <row r="997" spans="1:14" x14ac:dyDescent="0.25">
@@ -50082,7 +50082,7 @@
         <v>70</v>
       </c>
       <c r="K997" s="72">
-        <v>15.136000000000003</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="L997" s="72">
         <v>12.372999999999998</v>
@@ -50091,7 +50091,7 @@
         <v>47.064000000000007</v>
       </c>
       <c r="N997" s="72">
-        <v>27.509</v>
+        <v>27.508999999999997</v>
       </c>
     </row>
     <row r="998" spans="1:14" x14ac:dyDescent="0.25">
@@ -50173,13 +50173,13 @@
         <v>6.2240000000000002</v>
       </c>
       <c r="L999" s="72">
-        <v>3.7190000000000012</v>
+        <v>3.7189999999999994</v>
       </c>
       <c r="M999" s="72">
-        <v>25.323999999999998</v>
+        <v>25.324000000000002</v>
       </c>
       <c r="N999" s="72">
-        <v>9.9430000000000014</v>
+        <v>9.9429999999999996</v>
       </c>
     </row>
     <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
@@ -51600,7 +51600,7 @@
         <v>9.5360000000000014</v>
       </c>
       <c r="M1033" s="72">
-        <v>13.156000000000001</v>
+        <v>13.155999999999999</v>
       </c>
       <c r="N1033" s="72">
         <v>30.072000000000003</v>
@@ -51638,16 +51638,16 @@
         <v>70</v>
       </c>
       <c r="K1034" s="72">
-        <v>51.302</v>
+        <v>51.301999999999992</v>
       </c>
       <c r="L1034" s="72">
         <v>10.553000000000004</v>
       </c>
       <c r="M1034" s="72">
-        <v>19.519000000000002</v>
+        <v>19.518999999999998</v>
       </c>
       <c r="N1034" s="72">
-        <v>61.855000000000004</v>
+        <v>61.854999999999997</v>
       </c>
     </row>
     <row r="1035" spans="1:14" x14ac:dyDescent="0.25">
@@ -53106,10 +53106,10 @@
         <v>70</v>
       </c>
       <c r="K1069" s="72">
-        <v>26.107999999999997</v>
+        <v>26.108000000000001</v>
       </c>
       <c r="L1069" s="72">
-        <v>9.0870000000000033</v>
+        <v>9.0869999999999997</v>
       </c>
       <c r="M1069" s="72">
         <v>32.645000000000003</v>
@@ -53200,7 +53200,7 @@
         <v>16.673999999999999</v>
       </c>
       <c r="M1071" s="72">
-        <v>12.043000000000001</v>
+        <v>12.042999999999999</v>
       </c>
       <c r="N1071" s="72">
         <v>19.224</v>
@@ -54574,7 +54574,7 @@
         <v>70</v>
       </c>
       <c r="K1104" s="72">
-        <v>115.81800000000001</v>
+        <v>115.818</v>
       </c>
       <c r="L1104" s="72">
         <v>0</v>
@@ -54583,7 +54583,7 @@
         <v>0</v>
       </c>
       <c r="N1104" s="72">
-        <v>115.81800000000001</v>
+        <v>115.818</v>
       </c>
     </row>
     <row r="1105" spans="1:14" x14ac:dyDescent="0.25">
@@ -54618,7 +54618,7 @@
         <v>70</v>
       </c>
       <c r="K1105" s="72">
-        <v>14.082999999999998</v>
+        <v>14.083</v>
       </c>
       <c r="L1105" s="72">
         <v>99.174000000000007</v>
@@ -54665,13 +54665,13 @@
         <v>14.852</v>
       </c>
       <c r="L1106" s="72">
-        <v>98.188000000000017</v>
+        <v>98.188000000000002</v>
       </c>
       <c r="M1106" s="72">
         <v>15.068999999999999</v>
       </c>
       <c r="N1106" s="72">
-        <v>113.04000000000002</v>
+        <v>113.04</v>
       </c>
     </row>
     <row r="1107" spans="1:14" x14ac:dyDescent="0.25">
@@ -54753,13 +54753,13 @@
         <v>34.693000000000005</v>
       </c>
       <c r="L1108" s="72">
-        <v>26.585000000000001</v>
+        <v>26.584999999999994</v>
       </c>
       <c r="M1108" s="72">
         <v>76.731999999999999</v>
       </c>
       <c r="N1108" s="72">
-        <v>61.278000000000006</v>
+        <v>61.277999999999999</v>
       </c>
     </row>
     <row r="1109" spans="1:14" x14ac:dyDescent="0.25">
@@ -56013,13 +56013,13 @@
         <v>9.036999999999999</v>
       </c>
       <c r="L1138" s="72">
-        <v>42.753999999999998</v>
+        <v>42.754000000000005</v>
       </c>
       <c r="M1138" s="72">
         <v>8.8040000000000003</v>
       </c>
       <c r="N1138" s="72">
-        <v>51.790999999999997</v>
+        <v>51.791000000000004</v>
       </c>
     </row>
     <row r="1139" spans="1:14" x14ac:dyDescent="0.25">
@@ -56057,7 +56057,7 @@
         <v>0</v>
       </c>
       <c r="M1139" s="72">
-        <v>51.790999999999997</v>
+        <v>51.791000000000004</v>
       </c>
       <c r="N1139" s="72">
         <v>0</v>
@@ -56136,7 +56136,7 @@
         <v>8.8119999999999976</v>
       </c>
       <c r="M1141" s="72">
-        <v>57.387999999999998</v>
+        <v>57.388000000000005</v>
       </c>
       <c r="N1141" s="72">
         <v>38.287999999999997</v>
@@ -57645,13 +57645,13 @@
         <v>12.965</v>
       </c>
       <c r="L1177" s="72">
-        <v>98.651999999999987</v>
+        <v>98.652000000000001</v>
       </c>
       <c r="M1177" s="72">
-        <v>48.923999999999999</v>
+        <v>48.923999999999992</v>
       </c>
       <c r="N1177" s="72">
-        <v>111.61699999999999</v>
+        <v>111.617</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.25">
@@ -57686,16 +57686,16 @@
         <v>70</v>
       </c>
       <c r="K1178" s="72">
-        <v>31.268999999999998</v>
+        <v>31.269000000000002</v>
       </c>
       <c r="L1178" s="72">
-        <v>94.338999999999999</v>
+        <v>94.338999999999984</v>
       </c>
       <c r="M1178" s="72">
         <v>17.277999999999999</v>
       </c>
       <c r="N1178" s="72">
-        <v>125.608</v>
+        <v>125.60799999999999</v>
       </c>
     </row>
     <row r="1179" spans="1:14" x14ac:dyDescent="0.25">
@@ -57730,16 +57730,16 @@
         <v>70</v>
       </c>
       <c r="K1179" s="72">
-        <v>34.544000000000004</v>
+        <v>34.543999999999997</v>
       </c>
       <c r="L1179" s="72">
-        <v>92.078000000000003</v>
+        <v>92.077999999999989</v>
       </c>
       <c r="M1179" s="72">
         <v>33.53</v>
       </c>
       <c r="N1179" s="72">
-        <v>126.62200000000001</v>
+        <v>126.62199999999999</v>
       </c>
     </row>
     <row r="1180" spans="1:14" x14ac:dyDescent="0.25">
@@ -57777,13 +57777,13 @@
         <v>22.179000000000002</v>
       </c>
       <c r="L1180" s="72">
-        <v>30.065000000000012</v>
+        <v>30.064999999999998</v>
       </c>
       <c r="M1180" s="72">
-        <v>96.557000000000002</v>
+        <v>96.556999999999988</v>
       </c>
       <c r="N1180" s="72">
-        <v>52.244000000000014</v>
+        <v>52.244</v>
       </c>
     </row>
     <row r="1181" spans="1:14" x14ac:dyDescent="0.25">
@@ -57821,7 +57821,7 @@
         <v>0</v>
       </c>
       <c r="M1181" s="72">
-        <v>52.244000000000014</v>
+        <v>52.244</v>
       </c>
       <c r="N1181" s="72">
         <v>0</v>
@@ -61638,13 +61638,13 @@
         <v>360</v>
       </c>
       <c r="G7" s="72">
-        <v>46.930250000000015</v>
+        <v>46.930250000000001</v>
       </c>
       <c r="H7" s="72">
         <v>280</v>
       </c>
       <c r="I7" s="76">
-        <v>0.16760803571428576</v>
+        <v>0.16760803571428573</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -61725,13 +61725,13 @@
         <v>360</v>
       </c>
       <c r="G10" s="72">
-        <v>249.839</v>
+        <v>249.83900000000003</v>
       </c>
       <c r="H10" s="72">
         <v>350</v>
       </c>
       <c r="I10" s="76">
-        <v>0.71382571428571429</v>
+        <v>0.7138257142857144</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -61754,13 +61754,13 @@
         <v>360</v>
       </c>
       <c r="G11" s="72">
-        <v>64.526250000000019</v>
+        <v>64.52624999999999</v>
       </c>
       <c r="H11" s="72">
         <v>350</v>
       </c>
       <c r="I11" s="76">
-        <v>0.18436071428571435</v>
+        <v>0.18436071428571427</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -61783,13 +61783,13 @@
         <v>360</v>
       </c>
       <c r="G12" s="72">
-        <v>57.217250000000021</v>
+        <v>57.21725</v>
       </c>
       <c r="H12" s="72">
         <v>210</v>
       </c>
       <c r="I12" s="76">
-        <v>0.27246309523809537</v>
+        <v>0.27246309523809525</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -61812,13 +61812,13 @@
         <v>360</v>
       </c>
       <c r="G13" s="72">
-        <v>22.150749999999999</v>
+        <v>22.150749999999995</v>
       </c>
       <c r="H13" s="72">
         <v>210</v>
       </c>
       <c r="I13" s="76">
-        <v>0.1054797619047619</v>
+        <v>0.10547976190476188</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -61841,13 +61841,13 @@
         <v>360</v>
       </c>
       <c r="G14" s="72">
-        <v>71.600999999999985</v>
+        <v>71.600999999999999</v>
       </c>
       <c r="H14" s="72">
         <v>140</v>
       </c>
       <c r="I14" s="76">
-        <v>0.51143571428571422</v>
+        <v>0.51143571428571433</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -61870,13 +61870,13 @@
         <v>360</v>
       </c>
       <c r="G15" s="72">
-        <v>85.453499999999977</v>
+        <v>85.453500000000005</v>
       </c>
       <c r="H15" s="72">
         <v>140</v>
       </c>
       <c r="I15" s="76">
-        <v>0.61038214285714265</v>
+        <v>0.61038214285714287</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -61928,13 +61928,13 @@
         <v>360</v>
       </c>
       <c r="G17" s="72">
-        <v>121.69000000000005</v>
+        <v>121.68999999999997</v>
       </c>
       <c r="H17" s="72">
         <v>420</v>
       </c>
       <c r="I17" s="76">
-        <v>0.28973809523809535</v>
+        <v>0.28973809523809518</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -61957,13 +61957,13 @@
         <v>360</v>
       </c>
       <c r="G18" s="72">
-        <v>40.900000000000006</v>
+        <v>40.899999999999991</v>
       </c>
       <c r="H18" s="72">
         <v>70</v>
       </c>
       <c r="I18" s="76">
-        <v>0.58428571428571441</v>
+        <v>0.58428571428571419</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -61986,13 +61986,13 @@
         <v>360</v>
       </c>
       <c r="G19" s="72">
-        <v>50.378</v>
+        <v>50.378000000000014</v>
       </c>
       <c r="H19" s="72">
         <v>70</v>
       </c>
       <c r="I19" s="76">
-        <v>0.71968571428571426</v>
+        <v>0.71968571428571448</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -62044,13 +62044,13 @@
         <v>360</v>
       </c>
       <c r="G21" s="72">
-        <v>13.414</v>
+        <v>13.413999999999998</v>
       </c>
       <c r="H21" s="72">
         <v>70</v>
       </c>
       <c r="I21" s="76">
-        <v>0.19162857142857143</v>
+        <v>0.1916285714285714</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -62131,13 +62131,13 @@
         <v>360</v>
       </c>
       <c r="G24" s="72">
-        <v>61.135749999999994</v>
+        <v>61.13574999999998</v>
       </c>
       <c r="H24" s="72">
         <v>70</v>
       </c>
       <c r="I24" s="76">
-        <v>0.87336785714285703</v>
+        <v>0.87336785714285681</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -62160,13 +62160,13 @@
         <v>360</v>
       </c>
       <c r="G25" s="72">
-        <v>43.853500000000011</v>
+        <v>43.853500000000004</v>
       </c>
       <c r="H25" s="72">
         <v>70</v>
       </c>
       <c r="I25" s="76">
-        <v>0.62647857142857155</v>
+        <v>0.62647857142857144</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -62247,13 +62247,13 @@
         <v>360</v>
       </c>
       <c r="G28" s="72">
-        <v>149.03199999999993</v>
+        <v>149.03200000000001</v>
       </c>
       <c r="H28" s="72">
         <v>210</v>
       </c>
       <c r="I28" s="76">
-        <v>0.70967619047619013</v>
+        <v>0.70967619047619057</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -62276,13 +62276,13 @@
         <v>360</v>
       </c>
       <c r="G29" s="72">
-        <v>93.996750000000006</v>
+        <v>93.996750000000034</v>
       </c>
       <c r="H29" s="72">
         <v>210</v>
       </c>
       <c r="I29" s="76">
-        <v>0.44760357142857143</v>
+        <v>0.4476035714285716</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -62305,13 +62305,13 @@
         <v>360</v>
       </c>
       <c r="G30" s="72">
-        <v>57.182000000000002</v>
+        <v>57.181999999999988</v>
       </c>
       <c r="H30" s="72">
         <v>70</v>
       </c>
       <c r="I30" s="76">
-        <v>0.81688571428571433</v>
+        <v>0.8168857142857141</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -62334,13 +62334,13 @@
         <v>360</v>
       </c>
       <c r="G31" s="72">
-        <v>24.904</v>
+        <v>24.903999999999996</v>
       </c>
       <c r="H31" s="72">
         <v>70</v>
       </c>
       <c r="I31" s="76">
-        <v>0.35577142857142857</v>
+        <v>0.35577142857142852</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -62363,13 +62363,13 @@
         <v>360</v>
       </c>
       <c r="G32" s="72">
-        <v>117.69100000000002</v>
+        <v>117.69099999999999</v>
       </c>
       <c r="H32" s="72">
         <v>210</v>
       </c>
       <c r="I32" s="76">
-        <v>0.56043333333333345</v>
+        <v>0.56043333333333323</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -62392,13 +62392,13 @@
         <v>360</v>
       </c>
       <c r="G33" s="72">
-        <v>142.0199999999999</v>
+        <v>142.01999999999987</v>
       </c>
       <c r="H33" s="72">
         <v>210</v>
       </c>
       <c r="I33" s="76">
-        <v>0.67628571428571382</v>
+        <v>0.67628571428571371</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -62421,13 +62421,13 @@
         <v>360</v>
       </c>
       <c r="G34" s="72">
-        <v>617.65950000000009</v>
+        <v>617.65949999999941</v>
       </c>
       <c r="H34" s="72">
         <v>840</v>
       </c>
       <c r="I34" s="76">
-        <v>0.73530892857142871</v>
+        <v>0.73530892857142782</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -62450,13 +62450,13 @@
         <v>360</v>
       </c>
       <c r="G35" s="72">
-        <v>267.49349999999987</v>
+        <v>267.49349999999993</v>
       </c>
       <c r="H35" s="72">
         <v>840</v>
       </c>
       <c r="I35" s="76">
-        <v>0.31844464285714269</v>
+        <v>0.31844464285714275</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -62479,13 +62479,13 @@
         <v>360</v>
       </c>
       <c r="G36" s="72">
-        <v>43.743500000000004</v>
+        <v>43.743500000000012</v>
       </c>
       <c r="H36" s="72">
         <v>70</v>
       </c>
       <c r="I36" s="76">
-        <v>0.62490714285714288</v>
+        <v>0.62490714285714299</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -62537,13 +62537,13 @@
         <v>360</v>
       </c>
       <c r="G38" s="72">
-        <v>54.979750000000017</v>
+        <v>54.97975000000001</v>
       </c>
       <c r="H38" s="72">
         <v>70</v>
       </c>
       <c r="I38" s="76">
-        <v>0.78542500000000026</v>
+        <v>0.78542500000000015</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -62653,13 +62653,13 @@
         <v>360</v>
       </c>
       <c r="G42" s="72">
-        <v>64.462500000000006</v>
+        <v>64.46250000000002</v>
       </c>
       <c r="H42" s="72">
         <v>70</v>
       </c>
       <c r="I42" s="76">
-        <v>0.92089285714285718</v>
+        <v>0.9208928571428574</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -62682,13 +62682,13 @@
         <v>360</v>
       </c>
       <c r="G43" s="72">
-        <v>38.313250000000011</v>
+        <v>38.313250000000004</v>
       </c>
       <c r="H43" s="72">
         <v>70</v>
       </c>
       <c r="I43" s="76">
-        <v>0.54733214285714304</v>
+        <v>0.54733214285714293</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -62769,13 +62769,13 @@
         <v>360</v>
       </c>
       <c r="G46" s="72">
-        <v>115.89300000000003</v>
+        <v>115.89300000000001</v>
       </c>
       <c r="H46" s="72">
         <v>140</v>
       </c>
       <c r="I46" s="76">
-        <v>0.82780714285714307</v>
+        <v>0.82780714285714296</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -62798,13 +62798,13 @@
         <v>360</v>
       </c>
       <c r="G47" s="72">
-        <v>78.835000000000036</v>
+        <v>78.83499999999998</v>
       </c>
       <c r="H47" s="72">
         <v>140</v>
       </c>
       <c r="I47" s="76">
-        <v>0.56310714285714314</v>
+        <v>0.5631071428571427</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -62856,13 +62856,13 @@
         <v>360</v>
       </c>
       <c r="G49" s="72">
-        <v>41.058</v>
+        <v>41.057999999999993</v>
       </c>
       <c r="H49" s="72">
         <v>70</v>
       </c>
       <c r="I49" s="76">
-        <v>0.58654285714285714</v>
+        <v>0.58654285714285703</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -62885,13 +62885,13 @@
         <v>360</v>
       </c>
       <c r="G50" s="72">
-        <v>97.347250000000003</v>
+        <v>97.347249999999988</v>
       </c>
       <c r="H50" s="72">
         <v>210</v>
       </c>
       <c r="I50" s="76">
-        <v>0.46355833333333335</v>
+        <v>0.46355833333333329</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -62914,13 +62914,13 @@
         <v>360</v>
       </c>
       <c r="G51" s="72">
-        <v>151.36450000000008</v>
+        <v>151.36450000000002</v>
       </c>
       <c r="H51" s="72">
         <v>210</v>
       </c>
       <c r="I51" s="76">
-        <v>0.72078333333333366</v>
+        <v>0.72078333333333344</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -62943,13 +62943,13 @@
         <v>360</v>
       </c>
       <c r="G52" s="72">
-        <v>309.79250000000013</v>
+        <v>309.79249999999996</v>
       </c>
       <c r="H52" s="72">
         <v>630</v>
       </c>
       <c r="I52" s="76">
-        <v>0.49173412698412722</v>
+        <v>0.49173412698412694</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -62972,13 +62972,13 @@
         <v>360</v>
       </c>
       <c r="G53" s="72">
-        <v>474.95174999999995</v>
+        <v>474.95174999999978</v>
       </c>
       <c r="H53" s="72">
         <v>630</v>
       </c>
       <c r="I53" s="76">
-        <v>0.75389166666666663</v>
+        <v>0.75389166666666629</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -63001,13 +63001,13 @@
         <v>360</v>
       </c>
       <c r="G54" s="72">
-        <v>43.96725</v>
+        <v>43.967250000000035</v>
       </c>
       <c r="H54" s="72">
         <v>70</v>
       </c>
       <c r="I54" s="76">
-        <v>0.62810357142857143</v>
+        <v>0.62810357142857198</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -63030,7 +63030,7 @@
         <v>360</v>
       </c>
       <c r="G55" s="72">
-        <v>63.393750000000004</v>
+        <v>63.393749999999997</v>
       </c>
       <c r="H55" s="72">
         <v>70</v>
@@ -63059,13 +63059,13 @@
         <v>360</v>
       </c>
       <c r="G56" s="72">
-        <v>65.864500000000007</v>
+        <v>65.864499999999992</v>
       </c>
       <c r="H56" s="72">
         <v>70</v>
       </c>
       <c r="I56" s="76">
-        <v>0.94092142857142869</v>
+        <v>0.94092142857142846</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -63175,13 +63175,13 @@
         <v>360</v>
       </c>
       <c r="G60" s="72">
-        <v>62.991000000000007</v>
+        <v>62.991</v>
       </c>
       <c r="H60" s="72">
         <v>70</v>
       </c>
       <c r="I60" s="76">
-        <v>0.89987142857142866</v>
+        <v>0.89987142857142854</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -63291,13 +63291,13 @@
         <v>360</v>
       </c>
       <c r="G64" s="72">
-        <v>197.71025</v>
+        <v>197.71025000000006</v>
       </c>
       <c r="H64" s="72">
         <v>210</v>
       </c>
       <c r="I64" s="76">
-        <v>0.94147738095238098</v>
+        <v>0.9414773809523812</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -63320,13 +63320,13 @@
         <v>360</v>
       </c>
       <c r="G65" s="72">
-        <v>128.63374999999996</v>
+        <v>128.63374999999991</v>
       </c>
       <c r="H65" s="72">
         <v>210</v>
       </c>
       <c r="I65" s="76">
-        <v>0.61254166666666654</v>
+        <v>0.61254166666666621</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -63407,13 +63407,13 @@
         <v>360</v>
       </c>
       <c r="G68" s="72">
-        <v>96.72475</v>
+        <v>96.724750000000014</v>
       </c>
       <c r="H68" s="72">
         <v>210</v>
       </c>
       <c r="I68" s="76">
-        <v>0.4605940476190476</v>
+        <v>0.46059404761904771</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -63436,13 +63436,13 @@
         <v>360</v>
       </c>
       <c r="G69" s="72">
-        <v>174.3922499999999</v>
+        <v>174.39224999999996</v>
       </c>
       <c r="H69" s="72">
         <v>210</v>
       </c>
       <c r="I69" s="76">
-        <v>0.83043928571428527</v>
+        <v>0.83043928571428549</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -63465,13 +63465,13 @@
         <v>360</v>
       </c>
       <c r="G70" s="72">
-        <v>224.0287499999998</v>
+        <v>224.02875</v>
       </c>
       <c r="H70" s="72">
         <v>350</v>
       </c>
       <c r="I70" s="76">
-        <v>0.64008214285714227</v>
+        <v>0.64008214285714282</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -63494,13 +63494,13 @@
         <v>360</v>
       </c>
       <c r="G71" s="72">
-        <v>189.97324999999998</v>
+        <v>189.97324999999987</v>
       </c>
       <c r="H71" s="72">
         <v>350</v>
       </c>
       <c r="I71" s="76">
-        <v>0.54278071428571417</v>
+        <v>0.54278071428571395</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -63523,13 +63523,13 @@
         <v>360</v>
       </c>
       <c r="G72" s="72">
-        <v>45.39524999999999</v>
+        <v>45.395249999999997</v>
       </c>
       <c r="H72" s="72">
         <v>70</v>
       </c>
       <c r="I72" s="76">
-        <v>0.64850357142857129</v>
+        <v>0.6485035714285714</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -63552,13 +63552,13 @@
         <v>360</v>
       </c>
       <c r="G73" s="72">
-        <v>56.67799999999999</v>
+        <v>56.677999999999997</v>
       </c>
       <c r="H73" s="72">
         <v>70</v>
       </c>
       <c r="I73" s="76">
-        <v>0.80968571428571412</v>
+        <v>0.80968571428571423</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -63581,13 +63581,13 @@
         <v>360</v>
       </c>
       <c r="G74" s="72">
-        <v>42.745249999999999</v>
+        <v>42.745250000000006</v>
       </c>
       <c r="H74" s="72">
         <v>70</v>
       </c>
       <c r="I74" s="76">
-        <v>0.61064642857142859</v>
+        <v>0.6106464285714287</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -63610,13 +63610,13 @@
         <v>360</v>
       </c>
       <c r="G75" s="72">
-        <v>33.327249999999999</v>
+        <v>33.327249999999992</v>
       </c>
       <c r="H75" s="72">
         <v>70</v>
       </c>
       <c r="I75" s="76">
-        <v>0.4761035714285714</v>
+        <v>0.47610357142857129</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -63697,13 +63697,13 @@
         <v>360</v>
       </c>
       <c r="G78" s="72">
-        <v>54.477750000000007</v>
+        <v>54.477749999999993</v>
       </c>
       <c r="H78" s="72">
         <v>70</v>
       </c>
       <c r="I78" s="76">
-        <v>0.77825357142857154</v>
+        <v>0.77825357142857132</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -63755,13 +63755,13 @@
         <v>360</v>
       </c>
       <c r="G80" s="72">
-        <v>110.01474999999998</v>
+        <v>110.01475000000001</v>
       </c>
       <c r="H80" s="72">
         <v>140</v>
       </c>
       <c r="I80" s="76">
-        <v>0.78581964285714268</v>
+        <v>0.7858196428571429</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -63784,13 +63784,13 @@
         <v>360</v>
       </c>
       <c r="G81" s="72">
-        <v>71.546750000000017</v>
+        <v>71.546749999999989</v>
       </c>
       <c r="H81" s="72">
         <v>140</v>
       </c>
       <c r="I81" s="76">
-        <v>0.51104821428571445</v>
+        <v>0.51104821428571423</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -63813,13 +63813,13 @@
         <v>360</v>
       </c>
       <c r="G82" s="72">
-        <v>159.6687499999999</v>
+        <v>159.66874999999996</v>
       </c>
       <c r="H82" s="72">
         <v>210</v>
       </c>
       <c r="I82" s="76">
-        <v>0.7603273809523805</v>
+        <v>0.76032738095238073</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -63842,13 +63842,13 @@
         <v>360</v>
       </c>
       <c r="G83" s="72">
-        <v>63.156249999999986</v>
+        <v>63.156250000000007</v>
       </c>
       <c r="H83" s="72">
         <v>210</v>
       </c>
       <c r="I83" s="76">
-        <v>0.30074404761904755</v>
+        <v>0.30074404761904766</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -63871,13 +63871,13 @@
         <v>360</v>
       </c>
       <c r="G84" s="72">
-        <v>168.25125</v>
+        <v>168.25125000000006</v>
       </c>
       <c r="H84" s="72">
         <v>210</v>
       </c>
       <c r="I84" s="76">
-        <v>0.80119642857142859</v>
+        <v>0.80119642857142881</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
